--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821384.0253129122</v>
+        <v>850872.3263275626</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564207</v>
+        <v>236428.331398364</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9662474.503279343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8935643.683630291</v>
+        <v>8648257.187411843</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>397.6290279809137</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>221.6936739405738</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.647654120134868</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705984</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>71.32723313979564</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1029,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>81.25819606329414</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>253.9620394059545</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1266,7 +1268,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496642</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.0399185806814</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1452,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>129.0246247964035</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0237825764897</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1785,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>52.10844059186275</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>91.42179717797322</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.32232414915213</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.99240337009256</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>275.4805812731084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2482,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>295.9408816142896</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>221.0021786982965</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>103.1716949156719</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2919,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.34164242902975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>339.0399185806818</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>14.44433456003343</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>131.8179123113443</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>42.552497644928</v>
       </c>
       <c r="V35" t="n">
-        <v>221.002178698296</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>356.681260877744</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2.801690848279645</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3706,16 +3708,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>127.0044127072325</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>54.47555601903409</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>339.0399185806814</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>155.886038567534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>821.34450513655</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>1087.841318719834</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>880.6930508290441</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>880.6930508290441</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>880.6930508290441</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>880.6930508290441</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>672.9327520640902</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>43.89040469805397</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274026</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2351.43802427856</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2351.43802427856</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.43802427856</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2351.43802427856</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y5" t="n">
-        <v>2351.43802427856</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,52 +4643,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>495.9333588715792</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.0499982839149</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620.08070321196</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.08070321196</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1620.08070321196</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.08070321196</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4917,7 +4919,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E11" t="n">
-        <v>807.3934508328825</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F11" t="n">
-        <v>396.407546043275</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,10 +5041,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5081,10 +5083,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5130,13 +5132,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5203,34 +5205,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>597.8010803716834</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
         <v>53.94298182036445</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447095</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.175505447095</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.175505447095</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>808.3872528488505</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4013480592429</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5315,13 +5317,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487028</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5357,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5419,19 +5421,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240413</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261309</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644633</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5777702969935</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1157.367208492925</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1157.367208492925</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>799.1015098861748</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>799.1015098861748</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5546,19 +5548,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2604.803841343502</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2273.740953999931</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1920.972298729817</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1547.506540468737</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1157.367208492925</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5677,37 +5679,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1208.982837814967</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5783,19 +5785,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2656.419470665543</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2325.356583321972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1972.587928051858</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1599.122169790778</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1208.982837814967</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,73 +5807,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37975290126602</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>98.37975290126602</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>98.37975290126602</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>98.37975290126602</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>98.37975290126602</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658208</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502498</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.26178935949</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750359</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750359</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>500.8207968750359</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>500.8207968750359</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X22" t="n">
-        <v>500.8207968750359</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y22" t="n">
-        <v>280.0282177315057</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.680947310029</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.680947310029</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6065,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>709.5665374816297</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323009</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1363.553390680693</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1363.553390680693</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1363.553390680693</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1363.553390680693</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1363.553390680693</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6315,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2515.500626187983</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C28" t="n">
-        <v>2346.564443260076</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D28" t="n">
-        <v>2196.44780384774</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E28" t="n">
-        <v>2048.534710265347</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018223</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y28" t="n">
-        <v>2697.149091018223</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>885.3850306156801</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>516.4225136752684</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>158.1568150685179</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>158.1568150685179</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6461,19 +6463,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6494,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6548,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2170.876182214547</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C31" t="n">
-        <v>2170.876182214547</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.876182214547</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>2482.860667836386</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>2482.860667836386</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>2482.860667836386</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>2482.860667836386</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>2193.443497799425</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>2193.443497799425</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>2193.443497799425</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.409918978289</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.447402037878</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.181703431127</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>807.393450832883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F32" t="n">
-        <v>396.4075460432754</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036446</v>
@@ -6701,10 +6703,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2296.467277275819</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018223</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.009759042411</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245972</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245972</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2654.16677016476</v>
       </c>
       <c r="V35" t="n">
-        <v>2418.885877611043</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W35" t="n">
-        <v>2418.885877611043</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X35" t="n">
-        <v>2045.420119349963</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7016,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2407.975480672791</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>2312.380258669114</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447095</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C38" t="n">
-        <v>825.2129885066831</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>825.2129885066831</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
         <v>464.928886609972</v>
@@ -7175,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7208,16 +7210,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.319100262384</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2341.55044499227</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>1968.08468673119</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7354,13 +7356,13 @@
         <v>2667.732171871844</v>
       </c>
       <c r="R40" t="n">
-        <v>2519.585513306029</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S40" t="n">
-        <v>2305.297090124192</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T40" t="n">
-        <v>2077.988902792793</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U40" t="n">
         <v>2022.963088632153</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037877</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>807.3934508328825</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>396.407546043275</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7451,10 +7453,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7573,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>211.4036268380756</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
         <v>665.1105362747051</v>
@@ -7722,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7734,10 +7736,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7810,34 +7812,34 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875001</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V46" t="n">
         <v>2312.380258669114</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>136.5441990361994</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>350.4438349360588</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11382,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>9.247017760797746</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4.242752301619987</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.04847948014722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>82.24660231436351</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>260.7615551004092</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>179.8969343684936</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,16 +22947,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22999,7 +23001,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>170.8794472605339</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>127.9683306663073</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>74.74425144011354</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.01048066168073</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>73.76038744430531</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.85718120047548</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,13 +23788,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>159.8023703303161</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,13 +24025,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>210.9018433591372</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.3173988889584</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>89.79231049789911</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24370,22 +24372,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>53.30008710312342</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362247004</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>144.2707130727111</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>303.7043508260395</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24734,13 +24736,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.4903377529075</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886632</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>74.74425144011315</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>236.7798329482559</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25084,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>13.60313571158693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>208.6716698633613</v>
       </c>
       <c r="V35" t="n">
-        <v>106.7500797718389</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401878</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>25.24910919451776</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25448,7 +25450,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>324.9505676218553</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>85.14112624278638</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>231.8063182229436</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>74.74425144011354</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362247004</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>69.82361682150315</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772770.7936813892</v>
+        <v>485384.2974629398</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813895</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
@@ -26329,19 +26331,19 @@
         <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149697</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147457</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35944.74664026682</v>
+        <v>33777.16046143054</v>
       </c>
       <c r="C4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434076.7244032508</v>
+        <v>-42929.13997465518</v>
       </c>
       <c r="C6" t="n">
-        <v>155891.1548112935</v>
+        <v>-284816.9287034522</v>
       </c>
       <c r="D6" t="n">
         <v>155891.1548112934</v>
       </c>
       <c r="E6" t="n">
-        <v>189518.7548112933</v>
+        <v>189518.7548112936</v>
       </c>
       <c r="F6" t="n">
         <v>189518.7548112934</v>
@@ -26540,16 +26542,16 @@
         <v>189518.7548112934</v>
       </c>
       <c r="I6" t="n">
-        <v>189518.7548112935</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="J6" t="n">
-        <v>13095.53561870053</v>
+        <v>117264.0599401543</v>
       </c>
       <c r="K6" t="n">
-        <v>189518.7548112936</v>
+        <v>87052.63761554673</v>
       </c>
       <c r="L6" t="n">
-        <v>189518.7548112935</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="M6" t="n">
         <v>189518.7548112934</v>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>35.02126071912529</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>276.1565137023554</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,13 +26807,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522004</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32482,25 +32484,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34120,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>16.95427887837174</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307153</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36914,22 +36916,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37868,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839191</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,16 +38104,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
